--- a/ISA.xlsx
+++ b/ISA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Mandrew's ISA</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>$DRAM</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
+    <t>Offset range: -8 to +7</t>
   </si>
 </sst>
 </file>
@@ -737,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,12 +767,12 @@
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
         <v>48</v>
       </c>
@@ -771,7 +780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
@@ -788,7 +797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
@@ -835,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
@@ -878,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="B6" s="25" t="s">
         <v>38</v>
       </c>
@@ -923,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="B7" s="25" t="s">
         <v>47</v>
       </c>
@@ -966,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="B8" s="25" t="s">
         <v>39</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
@@ -1052,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="B10" s="25" t="s">
         <v>41</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="B11" s="25" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="B12" s="25" t="s">
         <v>43</v>
       </c>
@@ -1150,8 +1159,12 @@
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1183,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
@@ -1225,8 +1238,11 @@
       <c r="P13" s="11">
         <v>0</v>
       </c>
+      <c r="Q13" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
